--- a/AWT_few_shot/MM_Adapter/AWT_results.xlsx
+++ b/AWT_few_shot/MM_Adapter/AWT_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhuyuhan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuhan.zhu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73CE3E6-082E-3641-AF2A-B490FCF6330D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20AD402-2936-4203-B1D9-EC6C4CAD2DD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="few-shot" sheetId="3" r:id="rId1"/>
@@ -89,21 +89,6 @@
     <t>CoOp, shots=16</t>
   </si>
   <si>
-    <t>CoCoOp, shots=1</t>
-  </si>
-  <si>
-    <t>CoCoOp, shots=2</t>
-  </si>
-  <si>
-    <t>CoCoOp, shots=4</t>
-  </si>
-  <si>
-    <t>CoCoOp, shots=8</t>
-  </si>
-  <si>
-    <t>CoCoOp, shots=16</t>
-  </si>
-  <si>
     <t>PLOT++, shots=1</t>
   </si>
   <si>
@@ -134,21 +119,6 @@
     <t>PromptSRC, shots=16</t>
   </si>
   <si>
-    <t>Ours, shots=1</t>
-  </si>
-  <si>
-    <t>Ours, shots=2</t>
-  </si>
-  <si>
-    <t>Ours, shots=4</t>
-  </si>
-  <si>
-    <t>Ours, shots=8</t>
-  </si>
-  <si>
-    <t>Ours, shots=16</t>
-  </si>
-  <si>
     <t>APE-T, shots=1</t>
   </si>
   <si>
@@ -162,13 +132,43 @@
   </si>
   <si>
     <t>APE-T, shots=16</t>
+  </si>
+  <si>
+    <t>ProVP-Ref, shots=1</t>
+  </si>
+  <si>
+    <t>ProVP-Ref, shots=2</t>
+  </si>
+  <si>
+    <t>ProVP-Ref, shots=4</t>
+  </si>
+  <si>
+    <t>ProVP-Ref, shots=8</t>
+  </si>
+  <si>
+    <t>ProVP-Ref, shots=16</t>
+  </si>
+  <si>
+    <t>AWT, shots=1</t>
+  </si>
+  <si>
+    <t>AWT, shots=2</t>
+  </si>
+  <si>
+    <t>AWT, shots=4</t>
+  </si>
+  <si>
+    <t>AWT, shots=8</t>
+  </si>
+  <si>
+    <t>AWT, shots=16</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -227,8 +227,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -249,12 +256,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFCE5CD"/>
-        <bgColor rgb="FFFCE5CD"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFF2CC"/>
         <bgColor rgb="FFFFF2CC"/>
       </patternFill>
@@ -263,12 +264,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFD9EAD3"/>
         <bgColor rgb="FFD9EAD3"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD0E0E3"/>
-        <bgColor rgb="FFD0E0E3"/>
       </patternFill>
     </fill>
     <fill>
@@ -283,8 +278,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -308,62 +321,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color rgb="FFD9D9D9"/>
       </left>
-      <right style="medium">
+      <right style="thin">
         <color rgb="FFD9D9D9"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color rgb="FFD9D9D9"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFD9D9D9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFD9D9D9"/>
+      </right>
+      <top/>
+      <bottom style="thin">
         <color rgb="FFD9D9D9"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </left>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </right>
-      <top style="medium">
-        <color rgb="FFD9D9D9"/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFD9D9D9"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFCCCCCC"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFD9D9D9"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFD9D9D9"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -390,73 +384,71 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="9" fillId="10" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -678,16 +670,16 @@
   </sheetPr>
   <dimension ref="A1:Z50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.7109375" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="17">
+    <row r="1" spans="1:26" ht="17.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -782,19 +774,19 @@
       <c r="Z2" s="7"/>
     </row>
     <row r="3" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="6"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="12"/>
       <c r="N3" s="7"/>
       <c r="O3" s="7"/>
       <c r="P3" s="7"/>
@@ -810,43 +802,43 @@
       <c r="Z3" s="7"/>
     </row>
     <row r="4" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="15">
         <v>90.37</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="15">
         <v>77.53</v>
       </c>
-      <c r="D4" s="11">
+      <c r="D4" s="15">
         <v>21.37</v>
       </c>
-      <c r="E4" s="11">
+      <c r="E4" s="15">
         <v>50.23</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="15">
         <v>54.93</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="15">
         <v>67.430000000000007</v>
       </c>
-      <c r="H4" s="11">
+      <c r="H4" s="15">
         <v>84.33</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="15">
         <v>66.77</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="15">
         <v>92.6</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="15">
         <v>71.23</v>
       </c>
-      <c r="L4" s="11">
+      <c r="L4" s="15">
         <v>66.33</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="16">
         <f t="shared" ref="M4:M33" si="0">AVERAGE(B4:L4)</f>
         <v>67.556363636363642</v>
       </c>
@@ -865,43 +857,43 @@
       <c r="Z4" s="7"/>
     </row>
     <row r="5" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="15">
         <v>89.8</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="15">
         <v>87.33</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="15">
         <v>26.2</v>
       </c>
-      <c r="E5" s="11">
+      <c r="E5" s="15">
         <v>53.6</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="15">
         <v>65.17</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="15">
         <v>70.5</v>
       </c>
-      <c r="H5" s="11">
+      <c r="H5" s="15">
         <v>84.4</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="15">
         <v>66.53</v>
       </c>
-      <c r="J5" s="11">
+      <c r="J5" s="15">
         <v>93.07</v>
       </c>
-      <c r="K5" s="11">
+      <c r="K5" s="15">
         <v>73.430000000000007</v>
       </c>
-      <c r="L5" s="11">
+      <c r="L5" s="15">
         <v>67.069999999999993</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="16">
         <f t="shared" si="0"/>
         <v>70.645454545454541</v>
       </c>
@@ -920,43 +912,43 @@
       <c r="Z5" s="7"/>
     </row>
     <row r="6" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="15">
         <v>92.57</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="15">
         <v>92.17</v>
       </c>
-      <c r="D6" s="11">
+      <c r="D6" s="15">
         <v>30.83</v>
       </c>
-      <c r="E6" s="11">
+      <c r="E6" s="15">
         <v>58.7</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="15">
         <v>70.8</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="15">
         <v>74.47</v>
       </c>
-      <c r="H6" s="11">
+      <c r="H6" s="15">
         <v>84.47</v>
       </c>
-      <c r="I6" s="11">
+      <c r="I6" s="15">
         <v>69.97</v>
       </c>
-      <c r="J6" s="11">
+      <c r="J6" s="15">
         <v>94.4</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="15">
         <v>77.099999999999994</v>
       </c>
-      <c r="L6" s="11">
+      <c r="L6" s="15">
         <v>68.73</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="16">
         <f t="shared" si="0"/>
         <v>74.019090909090906</v>
       </c>
@@ -975,43 +967,43 @@
       <c r="Z6" s="7"/>
     </row>
     <row r="7" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="15">
         <v>91.27</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="15">
         <v>94.97</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="15">
         <v>39</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="15">
         <v>64.77</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="15">
         <v>78.069999999999993</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="15">
         <v>79.3</v>
       </c>
-      <c r="H7" s="11">
+      <c r="H7" s="15">
         <v>82.67</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="15">
         <v>71.53</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="15">
         <v>94.37</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="15">
         <v>80.2</v>
       </c>
-      <c r="L7" s="11">
+      <c r="L7" s="15">
         <v>70.63</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="16">
         <f t="shared" si="0"/>
         <v>76.98</v>
       </c>
@@ -1030,43 +1022,43 @@
       <c r="Z7" s="7"/>
     </row>
     <row r="8" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="15">
         <v>91.87</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="15">
         <v>97.07</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="15">
         <v>43.4</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="15">
         <v>69.87</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="15">
         <v>84.93</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="15">
         <v>83.07</v>
       </c>
-      <c r="H8" s="11">
+      <c r="H8" s="15">
         <v>84.2</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="15">
         <v>74.67</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="15">
         <v>95.57</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="15">
         <v>82.23</v>
       </c>
-      <c r="L8" s="11">
+      <c r="L8" s="15">
         <v>71.87</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="16">
         <f t="shared" si="0"/>
         <v>79.88636363636364</v>
       </c>
@@ -1085,45 +1077,45 @@
       <c r="Z8" s="7"/>
     </row>
     <row r="9" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13">
-        <v>91.27</v>
-      </c>
-      <c r="C9" s="13">
-        <v>72.08</v>
-      </c>
-      <c r="D9" s="13">
-        <v>12.68</v>
-      </c>
-      <c r="E9" s="13">
-        <v>48.54</v>
-      </c>
-      <c r="F9" s="13">
-        <v>55.33</v>
-      </c>
-      <c r="G9" s="13">
-        <v>67.22</v>
-      </c>
-      <c r="H9" s="13">
-        <v>85.65</v>
-      </c>
-      <c r="I9" s="13">
-        <v>68.33</v>
-      </c>
-      <c r="J9" s="13">
-        <v>93.83</v>
-      </c>
-      <c r="K9" s="13">
-        <v>70.3</v>
-      </c>
-      <c r="L9" s="13">
-        <v>69.430000000000007</v>
-      </c>
-      <c r="M9" s="6">
+      <c r="B9" s="18">
+        <v>91.89</v>
+      </c>
+      <c r="C9" s="18">
+        <v>80.48</v>
+      </c>
+      <c r="D9" s="18">
+        <v>28.6</v>
+      </c>
+      <c r="E9" s="18">
+        <v>54.57</v>
+      </c>
+      <c r="F9" s="18">
+        <v>65.41</v>
+      </c>
+      <c r="G9" s="18">
+        <v>68.81</v>
+      </c>
+      <c r="H9" s="18">
+        <v>86.16</v>
+      </c>
+      <c r="I9" s="18">
+        <v>66.77</v>
+      </c>
+      <c r="J9" s="18">
+        <v>94.34</v>
+      </c>
+      <c r="K9" s="18">
+        <v>74.31</v>
+      </c>
+      <c r="L9" s="18">
+        <v>66.45</v>
+      </c>
+      <c r="M9" s="16">
         <f t="shared" si="0"/>
-        <v>66.787272727272708</v>
+        <v>70.708181818181814</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1140,45 +1132,45 @@
       <c r="Z9" s="7"/>
     </row>
     <row r="10" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13">
-        <v>92.64</v>
-      </c>
-      <c r="C10" s="13">
-        <v>75.790000000000006</v>
-      </c>
-      <c r="D10" s="13">
-        <v>15.06</v>
-      </c>
-      <c r="E10" s="13">
-        <v>52.17</v>
-      </c>
-      <c r="F10" s="13">
-        <v>46.74</v>
-      </c>
-      <c r="G10" s="13">
-        <v>68.37</v>
-      </c>
-      <c r="H10" s="13">
-        <v>86.22</v>
-      </c>
-      <c r="I10" s="13">
-        <v>69.03</v>
-      </c>
-      <c r="J10" s="13">
-        <v>94.82</v>
-      </c>
-      <c r="K10" s="13">
-        <v>73.510000000000005</v>
-      </c>
-      <c r="L10" s="13">
-        <v>69.78</v>
-      </c>
-      <c r="M10" s="6">
+      <c r="B10" s="18">
+        <v>92.29</v>
+      </c>
+      <c r="C10" s="18">
+        <v>89.81</v>
+      </c>
+      <c r="D10" s="18">
+        <v>31.14</v>
+      </c>
+      <c r="E10" s="18">
+        <v>56.72</v>
+      </c>
+      <c r="F10" s="18">
+        <v>76.8</v>
+      </c>
+      <c r="G10" s="18">
+        <v>73.17</v>
+      </c>
+      <c r="H10" s="18">
+        <v>86.33</v>
+      </c>
+      <c r="I10" s="18">
+        <v>68.06</v>
+      </c>
+      <c r="J10" s="18">
+        <v>94.69</v>
+      </c>
+      <c r="K10" s="18">
+        <v>76.760000000000005</v>
+      </c>
+      <c r="L10" s="18">
+        <v>68.28</v>
+      </c>
+      <c r="M10" s="16">
         <f t="shared" si="0"/>
-        <v>67.648181818181811</v>
+        <v>74.00454545454545</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1195,45 +1187,45 @@
       <c r="Z10" s="7"/>
     </row>
     <row r="11" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13">
-        <v>92.81</v>
-      </c>
-      <c r="C11" s="13">
-        <v>78.400000000000006</v>
-      </c>
-      <c r="D11" s="13">
-        <v>24.79</v>
-      </c>
-      <c r="E11" s="13">
-        <v>55.04</v>
-      </c>
-      <c r="F11" s="13">
-        <v>65.56</v>
-      </c>
-      <c r="G11" s="13">
-        <v>69.39</v>
-      </c>
-      <c r="H11" s="13">
-        <v>86.88</v>
-      </c>
-      <c r="I11" s="13">
-        <v>70.209999999999994</v>
-      </c>
-      <c r="J11" s="13">
-        <v>94.98</v>
-      </c>
-      <c r="K11" s="13">
-        <v>74.819999999999993</v>
-      </c>
-      <c r="L11" s="13">
-        <v>70.39</v>
-      </c>
-      <c r="M11" s="6">
+      <c r="B11" s="18">
+        <v>92.55</v>
+      </c>
+      <c r="C11" s="18">
+        <v>92.93</v>
+      </c>
+      <c r="D11" s="18">
+        <v>35.29</v>
+      </c>
+      <c r="E11" s="18">
+        <v>62.43</v>
+      </c>
+      <c r="F11" s="18">
+        <v>83.21</v>
+      </c>
+      <c r="G11" s="18">
+        <v>76.25</v>
+      </c>
+      <c r="H11" s="18">
+        <v>86.46</v>
+      </c>
+      <c r="I11" s="18">
+        <v>71.73</v>
+      </c>
+      <c r="J11" s="18">
+        <v>95.13</v>
+      </c>
+      <c r="K11" s="18">
+        <v>79.760000000000005</v>
+      </c>
+      <c r="L11" s="18">
+        <v>70.400000000000006</v>
+      </c>
+      <c r="M11" s="16">
         <f t="shared" si="0"/>
-        <v>71.206363636363648</v>
+        <v>76.921818181818182</v>
       </c>
       <c r="N11" s="7"/>
       <c r="O11" s="7"/>
@@ -1250,45 +1242,45 @@
       <c r="Z11" s="7"/>
     </row>
     <row r="12" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13">
-        <v>93.45</v>
-      </c>
-      <c r="C12" s="13">
-        <v>84.3</v>
-      </c>
-      <c r="D12" s="13">
-        <v>26.61</v>
-      </c>
-      <c r="E12" s="13">
-        <v>58.89</v>
-      </c>
-      <c r="F12" s="13">
-        <v>68.209999999999994</v>
-      </c>
-      <c r="G12" s="13">
-        <v>70.44</v>
-      </c>
-      <c r="H12" s="13">
-        <v>86.97</v>
-      </c>
-      <c r="I12" s="13">
-        <v>70.84</v>
-      </c>
-      <c r="J12" s="13">
-        <v>95.04</v>
-      </c>
-      <c r="K12" s="13">
-        <v>77.14</v>
-      </c>
-      <c r="L12" s="13">
-        <v>70.63</v>
-      </c>
-      <c r="M12" s="6">
+      <c r="B12" s="18">
+        <v>93.02</v>
+      </c>
+      <c r="C12" s="18">
+        <v>95.44</v>
+      </c>
+      <c r="D12" s="18">
+        <v>41.42</v>
+      </c>
+      <c r="E12" s="18">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="F12" s="18">
+        <v>88.37</v>
+      </c>
+      <c r="G12" s="18">
+        <v>81.260000000000005</v>
+      </c>
+      <c r="H12" s="18">
+        <v>86.58</v>
+      </c>
+      <c r="I12" s="18">
+        <v>73.930000000000007</v>
+      </c>
+      <c r="J12" s="18">
+        <v>95.51</v>
+      </c>
+      <c r="K12" s="18">
+        <v>82.8</v>
+      </c>
+      <c r="L12" s="18">
+        <v>71.31</v>
+      </c>
+      <c r="M12" s="16">
         <f t="shared" si="0"/>
-        <v>72.956363636363633</v>
+        <v>79.648181818181811</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -1305,45 +1297,45 @@
       <c r="Z12" s="7"/>
     </row>
     <row r="13" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13">
-        <v>93.34</v>
-      </c>
-      <c r="C13" s="13">
-        <v>87.84</v>
-      </c>
-      <c r="D13" s="13">
-        <v>31.21</v>
-      </c>
-      <c r="E13" s="13">
-        <v>63.04</v>
-      </c>
-      <c r="F13" s="13">
-        <v>73.319999999999993</v>
-      </c>
-      <c r="G13" s="13">
-        <v>71.569999999999993</v>
-      </c>
-      <c r="H13" s="13">
-        <v>87.25</v>
-      </c>
-      <c r="I13" s="13">
-        <v>72.150000000000006</v>
-      </c>
-      <c r="J13" s="13">
-        <v>95.16</v>
-      </c>
-      <c r="K13" s="13">
-        <v>78.14</v>
-      </c>
-      <c r="L13" s="13">
-        <v>70.83</v>
-      </c>
-      <c r="M13" s="6">
+      <c r="B13" s="18">
+        <v>93.59</v>
+      </c>
+      <c r="C13" s="18">
+        <v>97.56</v>
+      </c>
+      <c r="D13" s="18">
+        <v>46.74</v>
+      </c>
+      <c r="E13" s="18">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="F13" s="18">
+        <v>92</v>
+      </c>
+      <c r="G13" s="18">
+        <v>84.55</v>
+      </c>
+      <c r="H13" s="18">
+        <v>87.11</v>
+      </c>
+      <c r="I13" s="18">
+        <v>76.03</v>
+      </c>
+      <c r="J13" s="18">
+        <v>96.04</v>
+      </c>
+      <c r="K13" s="18">
+        <v>85.34</v>
+      </c>
+      <c r="L13" s="18">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="M13" s="16">
         <f t="shared" si="0"/>
-        <v>74.895454545454541</v>
+        <v>82.09</v>
       </c>
       <c r="N13" s="7"/>
       <c r="O13" s="7"/>
@@ -1360,45 +1352,45 @@
       <c r="Z13" s="7"/>
     </row>
     <row r="14" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="15">
-        <v>91.89</v>
-      </c>
-      <c r="C14" s="15">
-        <v>80.48</v>
-      </c>
-      <c r="D14" s="15">
-        <v>28.6</v>
-      </c>
-      <c r="E14" s="15">
-        <v>54.57</v>
-      </c>
-      <c r="F14" s="15">
-        <v>65.41</v>
-      </c>
-      <c r="G14" s="15">
-        <v>68.81</v>
-      </c>
-      <c r="H14" s="15">
-        <v>86.16</v>
-      </c>
-      <c r="I14" s="15">
-        <v>66.77</v>
-      </c>
-      <c r="J14" s="15">
-        <v>94.34</v>
-      </c>
-      <c r="K14" s="15">
-        <v>74.31</v>
-      </c>
-      <c r="L14" s="15">
-        <v>66.45</v>
-      </c>
-      <c r="M14" s="6">
+      <c r="B14" s="20">
+        <v>92</v>
+      </c>
+      <c r="C14" s="20">
+        <v>85.93</v>
+      </c>
+      <c r="D14" s="20">
+        <v>27.67</v>
+      </c>
+      <c r="E14" s="20">
+        <v>56.23</v>
+      </c>
+      <c r="F14" s="20">
+        <v>73.13</v>
+      </c>
+      <c r="G14" s="20">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="H14" s="20">
+        <v>84.87</v>
+      </c>
+      <c r="I14" s="20">
+        <v>69.67</v>
+      </c>
+      <c r="J14" s="20">
+        <v>93.67</v>
+      </c>
+      <c r="K14" s="20">
+        <v>74.8</v>
+      </c>
+      <c r="L14" s="20">
+        <v>68.13</v>
+      </c>
+      <c r="M14" s="16">
         <f t="shared" si="0"/>
-        <v>70.708181818181814</v>
+        <v>72.318181818181813</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1415,45 +1407,45 @@
       <c r="Z14" s="7"/>
     </row>
     <row r="15" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="15">
-        <v>92.29</v>
-      </c>
-      <c r="C15" s="15">
-        <v>89.81</v>
-      </c>
-      <c r="D15" s="15">
-        <v>31.14</v>
-      </c>
-      <c r="E15" s="15">
-        <v>56.72</v>
-      </c>
-      <c r="F15" s="15">
-        <v>76.8</v>
-      </c>
-      <c r="G15" s="15">
-        <v>73.17</v>
-      </c>
-      <c r="H15" s="15">
-        <v>86.33</v>
-      </c>
-      <c r="I15" s="15">
-        <v>68.06</v>
-      </c>
-      <c r="J15" s="15">
-        <v>94.69</v>
-      </c>
-      <c r="K15" s="15">
-        <v>76.760000000000005</v>
-      </c>
-      <c r="L15" s="15">
-        <v>68.28</v>
-      </c>
-      <c r="M15" s="6">
+      <c r="B15" s="20">
+        <v>92.5</v>
+      </c>
+      <c r="C15" s="20">
+        <v>91.17</v>
+      </c>
+      <c r="D15" s="20">
+        <v>31.7</v>
+      </c>
+      <c r="E15" s="20">
+        <v>59.97</v>
+      </c>
+      <c r="F15" s="20">
+        <v>79.37</v>
+      </c>
+      <c r="G15" s="20">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="H15" s="20">
+        <v>85.7</v>
+      </c>
+      <c r="I15" s="20">
+        <v>71.599999999999994</v>
+      </c>
+      <c r="J15" s="20">
+        <v>94.53</v>
+      </c>
+      <c r="K15" s="20">
+        <v>78.5</v>
+      </c>
+      <c r="L15" s="20">
+        <v>69.77</v>
+      </c>
+      <c r="M15" s="16">
         <f t="shared" si="0"/>
-        <v>74.00454545454545</v>
+        <v>75.291818181818186</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1470,45 +1462,45 @@
       <c r="Z15" s="7"/>
     </row>
     <row r="16" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="15">
-        <v>92.55</v>
-      </c>
-      <c r="C16" s="15">
-        <v>92.93</v>
-      </c>
-      <c r="D16" s="15">
-        <v>35.29</v>
-      </c>
-      <c r="E16" s="15">
-        <v>62.43</v>
-      </c>
-      <c r="F16" s="15">
-        <v>83.21</v>
-      </c>
-      <c r="G16" s="15">
-        <v>76.25</v>
-      </c>
-      <c r="H16" s="15">
-        <v>86.46</v>
-      </c>
-      <c r="I16" s="15">
-        <v>71.73</v>
-      </c>
-      <c r="J16" s="15">
-        <v>95.13</v>
-      </c>
-      <c r="K16" s="15">
-        <v>79.760000000000005</v>
-      </c>
-      <c r="L16" s="15">
-        <v>70.400000000000006</v>
-      </c>
-      <c r="M16" s="6">
+      <c r="B16" s="20">
+        <v>93.43</v>
+      </c>
+      <c r="C16" s="20">
+        <v>93.87</v>
+      </c>
+      <c r="D16" s="20">
+        <v>37.47</v>
+      </c>
+      <c r="E16" s="20">
+        <v>65.53</v>
+      </c>
+      <c r="F16" s="20">
+        <v>86.3</v>
+      </c>
+      <c r="G16" s="20">
+        <v>77.13</v>
+      </c>
+      <c r="H16" s="20">
+        <v>86.17</v>
+      </c>
+      <c r="I16" s="20">
+        <v>74</v>
+      </c>
+      <c r="J16" s="20">
+        <v>95.27</v>
+      </c>
+      <c r="K16" s="20">
+        <v>81.569999999999993</v>
+      </c>
+      <c r="L16" s="20">
+        <v>71.069999999999993</v>
+      </c>
+      <c r="M16" s="16">
         <f t="shared" si="0"/>
-        <v>76.921818181818182</v>
+        <v>78.346363636363634</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1525,45 +1517,45 @@
       <c r="Z16" s="7"/>
     </row>
     <row r="17" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="15">
-        <v>93.02</v>
-      </c>
-      <c r="C17" s="15">
-        <v>95.44</v>
-      </c>
-      <c r="D17" s="15">
-        <v>41.42</v>
-      </c>
-      <c r="E17" s="15">
-        <v>66.489999999999995</v>
-      </c>
-      <c r="F17" s="15">
-        <v>88.37</v>
-      </c>
-      <c r="G17" s="15">
-        <v>81.260000000000005</v>
-      </c>
-      <c r="H17" s="15">
-        <v>86.58</v>
-      </c>
-      <c r="I17" s="15">
-        <v>73.930000000000007</v>
-      </c>
-      <c r="J17" s="15">
-        <v>95.51</v>
-      </c>
-      <c r="K17" s="15">
-        <v>82.8</v>
-      </c>
-      <c r="L17" s="15">
-        <v>71.31</v>
-      </c>
-      <c r="M17" s="6">
+      <c r="B17" s="20">
+        <v>93.5</v>
+      </c>
+      <c r="C17" s="20">
+        <v>96.27</v>
+      </c>
+      <c r="D17" s="20">
+        <v>43.27</v>
+      </c>
+      <c r="E17" s="20">
+        <v>69.87</v>
+      </c>
+      <c r="F17" s="20">
+        <v>88.8</v>
+      </c>
+      <c r="G17" s="20">
+        <v>80.97</v>
+      </c>
+      <c r="H17" s="20">
+        <v>86.9</v>
+      </c>
+      <c r="I17" s="20">
+        <v>75.73</v>
+      </c>
+      <c r="J17" s="20">
+        <v>95.67</v>
+      </c>
+      <c r="K17" s="20">
+        <v>84.3</v>
+      </c>
+      <c r="L17" s="20">
+        <v>72.33</v>
+      </c>
+      <c r="M17" s="16">
         <f t="shared" si="0"/>
-        <v>79.648181818181811</v>
+        <v>80.691818181818178</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1580,45 +1572,45 @@
       <c r="Z17" s="7"/>
     </row>
     <row r="18" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="15">
-        <v>93.59</v>
-      </c>
-      <c r="C18" s="15">
-        <v>97.56</v>
-      </c>
-      <c r="D18" s="15">
-        <v>46.74</v>
-      </c>
-      <c r="E18" s="15">
-        <v>71.430000000000007</v>
-      </c>
-      <c r="F18" s="15">
-        <v>92</v>
-      </c>
-      <c r="G18" s="15">
-        <v>84.55</v>
-      </c>
-      <c r="H18" s="15">
-        <v>87.11</v>
-      </c>
-      <c r="I18" s="15">
-        <v>76.03</v>
-      </c>
-      <c r="J18" s="15">
-        <v>96.04</v>
-      </c>
-      <c r="K18" s="15">
-        <v>85.34</v>
-      </c>
-      <c r="L18" s="15">
-        <v>72.599999999999994</v>
-      </c>
-      <c r="M18" s="6">
+      <c r="B18" s="20">
+        <v>93.67</v>
+      </c>
+      <c r="C18" s="20">
+        <v>97.6</v>
+      </c>
+      <c r="D18" s="20">
+        <v>50.83</v>
+      </c>
+      <c r="E18" s="20">
+        <v>72.73</v>
+      </c>
+      <c r="F18" s="20">
+        <v>92.43</v>
+      </c>
+      <c r="G18" s="20">
+        <v>83.83</v>
+      </c>
+      <c r="H18" s="20">
+        <v>87.5</v>
+      </c>
+      <c r="I18" s="20">
+        <v>77.23</v>
+      </c>
+      <c r="J18" s="20">
+        <v>96.07</v>
+      </c>
+      <c r="K18" s="20">
+        <v>86.47</v>
+      </c>
+      <c r="L18" s="20">
+        <v>73.17</v>
+      </c>
+      <c r="M18" s="16">
         <f t="shared" si="0"/>
-        <v>82.09</v>
+        <v>82.86636363636363</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1635,45 +1627,45 @@
       <c r="Z18" s="7"/>
     </row>
     <row r="19" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A19" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="17">
-        <v>92</v>
-      </c>
-      <c r="C19" s="17">
-        <v>85.93</v>
-      </c>
-      <c r="D19" s="17">
-        <v>27.67</v>
-      </c>
-      <c r="E19" s="17">
-        <v>56.23</v>
-      </c>
-      <c r="F19" s="17">
-        <v>73.13</v>
-      </c>
-      <c r="G19" s="17">
-        <v>69.400000000000006</v>
-      </c>
-      <c r="H19" s="17">
-        <v>84.87</v>
-      </c>
-      <c r="I19" s="17">
-        <v>69.67</v>
-      </c>
-      <c r="J19" s="17">
-        <v>93.67</v>
-      </c>
-      <c r="K19" s="17">
-        <v>74.8</v>
-      </c>
-      <c r="L19" s="17">
-        <v>68.13</v>
-      </c>
-      <c r="M19" s="6">
+      <c r="A19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="31">
+        <v>91.31</v>
+      </c>
+      <c r="C19" s="31">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="D19" s="31">
+        <v>28.02</v>
+      </c>
+      <c r="E19" s="31">
+        <v>52.22</v>
+      </c>
+      <c r="F19" s="31">
+        <v>82.88</v>
+      </c>
+      <c r="G19" s="31">
+        <v>66.72</v>
+      </c>
+      <c r="H19" s="31">
+        <v>84.76</v>
+      </c>
+      <c r="I19" s="31">
+        <v>66.09</v>
+      </c>
+      <c r="J19" s="31">
+        <v>94.01</v>
+      </c>
+      <c r="K19" s="31">
+        <v>72.72</v>
+      </c>
+      <c r="L19" s="31">
+        <v>67.290000000000006</v>
+      </c>
+      <c r="M19" s="16">
         <f t="shared" si="0"/>
-        <v>72.318181818181813</v>
+        <v>71.374545454545455</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1690,45 +1682,45 @@
       <c r="Z19" s="7"/>
     </row>
     <row r="20" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A20" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="B20" s="17">
-        <v>92.5</v>
-      </c>
-      <c r="C20" s="17">
-        <v>91.17</v>
-      </c>
-      <c r="D20" s="17">
-        <v>31.7</v>
-      </c>
-      <c r="E20" s="17">
-        <v>59.97</v>
-      </c>
-      <c r="F20" s="17">
-        <v>79.37</v>
-      </c>
-      <c r="G20" s="17">
-        <v>73.400000000000006</v>
-      </c>
-      <c r="H20" s="17">
-        <v>85.7</v>
-      </c>
-      <c r="I20" s="17">
-        <v>71.599999999999994</v>
-      </c>
-      <c r="J20" s="17">
-        <v>94.53</v>
-      </c>
-      <c r="K20" s="17">
-        <v>78.5</v>
-      </c>
-      <c r="L20" s="17">
-        <v>69.77</v>
-      </c>
-      <c r="M20" s="6">
+      <c r="A20" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="31">
+        <v>92.31</v>
+      </c>
+      <c r="C20" s="31">
+        <v>86.11</v>
+      </c>
+      <c r="D20" s="31">
+        <v>30.55</v>
+      </c>
+      <c r="E20" s="31">
+        <v>57.23</v>
+      </c>
+      <c r="F20" s="31">
+        <v>86.57</v>
+      </c>
+      <c r="G20" s="31">
+        <v>67.930000000000007</v>
+      </c>
+      <c r="H20" s="31">
+        <v>85.54</v>
+      </c>
+      <c r="I20" s="31">
+        <v>68.42</v>
+      </c>
+      <c r="J20" s="31">
+        <v>95.09</v>
+      </c>
+      <c r="K20" s="31">
+        <v>76.069999999999993</v>
+      </c>
+      <c r="L20" s="31">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="M20" s="16">
         <f t="shared" si="0"/>
-        <v>75.291818181818186</v>
+        <v>74.032727272727286</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1745,45 +1737,45 @@
       <c r="Z20" s="7"/>
     </row>
     <row r="21" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A21" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="17">
-        <v>93.43</v>
-      </c>
-      <c r="C21" s="17">
-        <v>93.87</v>
-      </c>
-      <c r="D21" s="17">
-        <v>37.47</v>
-      </c>
-      <c r="E21" s="17">
-        <v>65.53</v>
-      </c>
-      <c r="F21" s="17">
-        <v>86.3</v>
-      </c>
-      <c r="G21" s="17">
-        <v>77.13</v>
-      </c>
-      <c r="H21" s="17">
-        <v>86.17</v>
-      </c>
-      <c r="I21" s="17">
-        <v>74</v>
-      </c>
-      <c r="J21" s="17">
-        <v>95.27</v>
-      </c>
-      <c r="K21" s="17">
-        <v>81.569999999999993</v>
-      </c>
-      <c r="L21" s="17">
-        <v>71.069999999999993</v>
-      </c>
-      <c r="M21" s="6">
+      <c r="A21" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="31">
+        <v>93.02</v>
+      </c>
+      <c r="C21" s="31">
+        <v>91.7</v>
+      </c>
+      <c r="D21" s="31">
+        <v>34.4</v>
+      </c>
+      <c r="E21" s="31">
+        <v>63.33</v>
+      </c>
+      <c r="F21" s="31">
+        <v>88.97</v>
+      </c>
+      <c r="G21" s="31">
+        <v>71.569999999999993</v>
+      </c>
+      <c r="H21" s="31">
+        <v>86.13</v>
+      </c>
+      <c r="I21" s="31">
+        <v>70.27</v>
+      </c>
+      <c r="J21" s="31">
+        <v>95.28</v>
+      </c>
+      <c r="K21" s="31">
+        <v>80.13</v>
+      </c>
+      <c r="L21" s="31">
+        <v>69.25</v>
+      </c>
+      <c r="M21" s="16">
         <f t="shared" si="0"/>
-        <v>78.346363636363634</v>
+        <v>76.73181818181817</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1800,45 +1792,45 @@
       <c r="Z21" s="7"/>
     </row>
     <row r="22" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A22" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="17">
-        <v>93.5</v>
-      </c>
-      <c r="C22" s="17">
-        <v>96.27</v>
-      </c>
-      <c r="D22" s="17">
-        <v>43.27</v>
-      </c>
-      <c r="E22" s="17">
-        <v>69.87</v>
-      </c>
-      <c r="F22" s="17">
-        <v>88.8</v>
-      </c>
-      <c r="G22" s="17">
-        <v>80.97</v>
-      </c>
-      <c r="H22" s="17">
-        <v>86.9</v>
-      </c>
-      <c r="I22" s="17">
-        <v>75.73</v>
-      </c>
-      <c r="J22" s="17">
-        <v>95.67</v>
-      </c>
-      <c r="K22" s="17">
-        <v>84.3</v>
-      </c>
-      <c r="L22" s="17">
-        <v>72.33</v>
-      </c>
-      <c r="M22" s="6">
+      <c r="A22" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="31">
+        <v>93.27</v>
+      </c>
+      <c r="C22" s="31">
+        <v>95.89</v>
+      </c>
+      <c r="D22" s="31">
+        <v>43.47</v>
+      </c>
+      <c r="E22" s="31">
+        <v>68.42</v>
+      </c>
+      <c r="F22" s="31">
+        <v>91.78</v>
+      </c>
+      <c r="G22" s="31">
+        <v>77.33</v>
+      </c>
+      <c r="H22" s="31">
+        <v>86.41</v>
+      </c>
+      <c r="I22" s="31">
+        <v>72.48</v>
+      </c>
+      <c r="J22" s="31">
+        <v>95.86</v>
+      </c>
+      <c r="K22" s="31">
+        <v>83.57</v>
+      </c>
+      <c r="L22" s="31">
+        <v>70.23</v>
+      </c>
+      <c r="M22" s="16">
         <f t="shared" si="0"/>
-        <v>80.691818181818178</v>
+        <v>79.88272727272728</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1854,46 +1846,46 @@
       <c r="Y22" s="7"/>
       <c r="Z22" s="7"/>
     </row>
-    <row r="23" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A23" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="17">
-        <v>93.67</v>
-      </c>
-      <c r="C23" s="17">
-        <v>97.6</v>
-      </c>
-      <c r="D23" s="17">
-        <v>50.83</v>
-      </c>
-      <c r="E23" s="17">
-        <v>72.73</v>
-      </c>
-      <c r="F23" s="17">
-        <v>92.43</v>
-      </c>
-      <c r="G23" s="17">
-        <v>83.83</v>
-      </c>
-      <c r="H23" s="17">
-        <v>87.5</v>
-      </c>
-      <c r="I23" s="17">
-        <v>77.23</v>
-      </c>
-      <c r="J23" s="17">
-        <v>96.07</v>
-      </c>
-      <c r="K23" s="17">
-        <v>86.47</v>
-      </c>
-      <c r="L23" s="17">
-        <v>73.17</v>
-      </c>
-      <c r="M23" s="6">
+    <row r="23" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="31">
+        <v>93.89</v>
+      </c>
+      <c r="C23" s="31">
+        <v>98.16</v>
+      </c>
+      <c r="D23" s="31">
+        <v>53.18</v>
+      </c>
+      <c r="E23" s="31">
+        <v>73.62</v>
+      </c>
+      <c r="F23" s="31">
+        <v>94.19</v>
+      </c>
+      <c r="G23" s="31">
+        <v>84.85</v>
+      </c>
+      <c r="H23" s="31">
+        <v>87</v>
+      </c>
+      <c r="I23" s="31">
+        <v>74.72</v>
+      </c>
+      <c r="J23" s="31">
+        <v>96.63</v>
+      </c>
+      <c r="K23" s="31">
+        <v>86.43</v>
+      </c>
+      <c r="L23" s="31">
+        <v>71.14</v>
+      </c>
+      <c r="M23" s="16">
         <f t="shared" si="0"/>
-        <v>82.86636363636363</v>
+        <v>83.073636363636368</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
@@ -1909,44 +1901,44 @@
       <c r="Y23" s="7"/>
       <c r="Z23" s="7"/>
     </row>
-    <row r="24" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A24" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24" s="27">
+    <row r="24" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A24" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="23">
         <v>91.17</v>
       </c>
-      <c r="C24" s="27">
+      <c r="C24" s="23">
         <v>90.58</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="23">
         <v>31.5</v>
       </c>
-      <c r="E24" s="27">
+      <c r="E24" s="23">
         <v>60.58</v>
       </c>
-      <c r="F24" s="27">
+      <c r="F24" s="23">
         <v>72.98</v>
       </c>
-      <c r="G24" s="27">
+      <c r="G24" s="23">
         <v>69.41</v>
       </c>
-      <c r="H24" s="27">
+      <c r="H24" s="23">
         <v>85.94</v>
       </c>
-      <c r="I24" s="27">
+      <c r="I24" s="23">
         <v>71.2</v>
       </c>
-      <c r="J24" s="27">
+      <c r="J24" s="23">
         <v>93.87</v>
       </c>
-      <c r="K24" s="27">
+      <c r="K24" s="23">
         <v>75.260000000000005</v>
       </c>
-      <c r="L24" s="27">
+      <c r="L24" s="23">
         <v>70.88</v>
       </c>
-      <c r="M24" s="28">
+      <c r="M24" s="24">
         <v>73.94</v>
       </c>
       <c r="N24" s="7"/>
@@ -1963,44 +1955,44 @@
       <c r="Y24" s="7"/>
       <c r="Z24" s="7"/>
     </row>
-    <row r="25" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A25" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B25" s="30">
+    <row r="25" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A25" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B25" s="23">
         <v>91.77</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C25" s="23">
         <v>94.15</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D25" s="23">
         <v>35.85</v>
       </c>
-      <c r="E25" s="30">
+      <c r="E25" s="23">
         <v>62.94</v>
       </c>
-      <c r="F25" s="30">
+      <c r="F25" s="23">
         <v>76.73</v>
       </c>
-      <c r="G25" s="30">
+      <c r="G25" s="23">
         <v>73.77</v>
       </c>
-      <c r="H25" s="30">
+      <c r="H25" s="23">
         <v>86.01</v>
       </c>
-      <c r="I25" s="30">
+      <c r="I25" s="23">
         <v>72.19</v>
       </c>
-      <c r="J25" s="30">
+      <c r="J25" s="23">
         <v>94.93</v>
       </c>
-      <c r="K25" s="30">
+      <c r="K25" s="23">
         <v>79.17</v>
       </c>
-      <c r="L25" s="30">
+      <c r="L25" s="23">
         <v>71.430000000000007</v>
       </c>
-      <c r="M25" s="31">
+      <c r="M25" s="24">
         <v>76.27</v>
       </c>
       <c r="N25" s="7"/>
@@ -2017,44 +2009,44 @@
       <c r="Y25" s="7"/>
       <c r="Z25" s="7"/>
     </row>
-    <row r="26" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A26" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="B26" s="30">
+    <row r="26" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A26" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B26" s="23">
         <v>92.34</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="23">
         <v>95.7</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D26" s="23">
         <v>39</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="23">
         <v>67.55</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="23">
         <v>83.57</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="23">
         <v>76.61</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="23">
         <v>86.61</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="23">
         <v>74.47</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="23">
         <v>94.73</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="23">
         <v>80.989999999999995</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="23">
         <v>71.989999999999995</v>
       </c>
-      <c r="M26" s="31">
+      <c r="M26" s="24">
         <v>78.510000000000005</v>
       </c>
       <c r="N26" s="7"/>
@@ -2071,44 +2063,44 @@
       <c r="Y26" s="7"/>
       <c r="Z26" s="7"/>
     </row>
-    <row r="27" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A27" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B27" s="30">
+    <row r="27" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A27" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="B27" s="23">
         <v>93.46</v>
       </c>
-      <c r="C27" s="30">
+      <c r="C27" s="23">
         <v>96.91</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D27" s="23">
         <v>42.87</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="23">
         <v>70.63</v>
       </c>
-      <c r="F27" s="30">
+      <c r="F27" s="23">
         <v>87.02</v>
       </c>
-      <c r="G27" s="30">
+      <c r="G27" s="23">
         <v>78.86</v>
       </c>
-      <c r="H27" s="30">
+      <c r="H27" s="23">
         <v>86.85</v>
       </c>
-      <c r="I27" s="30">
+      <c r="I27" s="23">
         <v>76.13</v>
       </c>
-      <c r="J27" s="30">
+      <c r="J27" s="23">
         <v>95.7</v>
       </c>
-      <c r="K27" s="30">
+      <c r="K27" s="23">
         <v>83.72</v>
       </c>
-      <c r="L27" s="30">
+      <c r="L27" s="23">
         <v>73.37</v>
       </c>
-      <c r="M27" s="31">
+      <c r="M27" s="24">
         <v>80.5</v>
       </c>
       <c r="N27" s="7"/>
@@ -2125,44 +2117,44 @@
       <c r="Y27" s="7"/>
       <c r="Z27" s="7"/>
     </row>
-    <row r="28" spans="1:26" ht="18.75" customHeight="1" thickBot="1">
-      <c r="A28" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" s="30">
+    <row r="28" spans="1:26" ht="18.75" customHeight="1">
+      <c r="A28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B28" s="23">
         <v>93.16</v>
       </c>
-      <c r="C28" s="30">
+      <c r="C28" s="23">
         <v>97.81</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D28" s="23">
         <v>48.33</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="23">
         <v>74.290000000000006</v>
       </c>
-      <c r="F28" s="30">
+      <c r="F28" s="23">
         <v>90.17</v>
       </c>
-      <c r="G28" s="30">
+      <c r="G28" s="23">
         <v>83.93</v>
       </c>
-      <c r="H28" s="30">
+      <c r="H28" s="23">
         <v>87.22</v>
       </c>
-      <c r="I28" s="30">
+      <c r="I28" s="23">
         <v>77.290000000000006</v>
       </c>
-      <c r="J28" s="30">
+      <c r="J28" s="23">
         <v>95.94</v>
       </c>
-      <c r="K28" s="30">
+      <c r="K28" s="23">
         <v>84.85</v>
       </c>
-      <c r="L28" s="30">
+      <c r="L28" s="23">
         <v>74.33</v>
       </c>
-      <c r="M28" s="31">
+      <c r="M28" s="24">
         <v>82.49</v>
       </c>
       <c r="N28" s="7"/>
@@ -2180,43 +2172,43 @@
       <c r="Z28" s="7"/>
     </row>
     <row r="29" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A29" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="B29" s="19">
+      <c r="A29" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="26">
         <v>92.89</v>
       </c>
-      <c r="C29" s="19">
+      <c r="C29" s="26">
         <v>85.61</v>
       </c>
-      <c r="D29" s="19">
+      <c r="D29" s="26">
         <v>33.92</v>
       </c>
-      <c r="E29" s="19">
+      <c r="E29" s="26">
         <v>59.44</v>
       </c>
-      <c r="F29" s="19">
+      <c r="F29" s="26">
         <v>76.33</v>
       </c>
-      <c r="G29" s="19">
+      <c r="G29" s="26">
         <v>73.430000000000007</v>
       </c>
-      <c r="H29" s="19">
+      <c r="H29" s="26">
         <v>85.92</v>
       </c>
-      <c r="I29" s="19">
+      <c r="I29" s="26">
         <v>72.650000000000006</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J29" s="26">
         <v>95.13</v>
       </c>
-      <c r="K29" s="19">
+      <c r="K29" s="26">
         <v>78.38</v>
       </c>
-      <c r="L29" s="19">
+      <c r="L29" s="26">
         <v>72.14</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="16">
         <f t="shared" si="0"/>
         <v>75.076363636363638</v>
       </c>
@@ -2235,43 +2227,43 @@
       <c r="Z29" s="7"/>
     </row>
     <row r="30" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A30" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B30" s="20">
+      <c r="A30" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="27">
         <v>92.98</v>
       </c>
-      <c r="C30" s="20">
+      <c r="C30" s="27">
         <v>89.89</v>
       </c>
-      <c r="D30" s="20">
+      <c r="D30" s="27">
         <v>37.770000000000003</v>
       </c>
-      <c r="E30" s="20">
+      <c r="E30" s="27">
         <v>62.63</v>
       </c>
-      <c r="F30" s="20">
+      <c r="F30" s="27">
         <v>83.17</v>
       </c>
-      <c r="G30" s="20">
+      <c r="G30" s="27">
         <v>76.959999999999994</v>
       </c>
-      <c r="H30" s="20">
+      <c r="H30" s="27">
         <v>86.05</v>
       </c>
-      <c r="I30" s="20">
+      <c r="I30" s="27">
         <v>73.72</v>
       </c>
-      <c r="J30" s="20">
+      <c r="J30" s="27">
         <v>95.67</v>
       </c>
-      <c r="K30" s="20">
+      <c r="K30" s="27">
         <v>80.319999999999993</v>
       </c>
-      <c r="L30" s="20">
+      <c r="L30" s="27">
         <v>72.86</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="16">
         <f t="shared" si="0"/>
         <v>77.456363636363648</v>
       </c>
@@ -2290,43 +2282,43 @@
       <c r="Z30" s="7"/>
     </row>
     <row r="31" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A31" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B31" s="21">
+      <c r="A31" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="28">
         <v>93.5</v>
       </c>
-      <c r="C31" s="22">
+      <c r="C31" s="29">
         <v>93.98</v>
       </c>
-      <c r="D31" s="21">
+      <c r="D31" s="28">
         <v>42.14</v>
       </c>
-      <c r="E31" s="21">
+      <c r="E31" s="28">
         <v>67.02</v>
       </c>
-      <c r="F31" s="23">
+      <c r="F31" s="30">
         <v>88.51</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="28">
         <v>80.739999999999995</v>
       </c>
-      <c r="H31" s="21">
+      <c r="H31" s="28">
         <v>86.46</v>
       </c>
-      <c r="I31" s="21">
+      <c r="I31" s="28">
         <v>74.72</v>
       </c>
-      <c r="J31" s="21">
+      <c r="J31" s="28">
         <v>96.27</v>
       </c>
-      <c r="K31" s="21">
+      <c r="K31" s="28">
         <v>82.91</v>
       </c>
-      <c r="L31" s="21">
+      <c r="L31" s="28">
         <v>73.41</v>
       </c>
-      <c r="M31" s="6">
+      <c r="M31" s="16">
         <f t="shared" si="0"/>
         <v>79.969090909090909</v>
       </c>
@@ -2345,43 +2337,43 @@
       <c r="Z31" s="7"/>
     </row>
     <row r="32" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A32" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B32" s="21">
+      <c r="A32" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="B32" s="28">
         <v>93.83</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="30">
         <v>96.47</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="28">
         <v>50.21</v>
       </c>
-      <c r="E32" s="21">
+      <c r="E32" s="28">
         <v>70.510000000000005</v>
       </c>
-      <c r="F32" s="23">
+      <c r="F32" s="30">
         <v>89.72</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="28">
         <v>84.5</v>
       </c>
-      <c r="H32" s="21">
+      <c r="H32" s="28">
         <v>87.44</v>
       </c>
-      <c r="I32" s="21">
+      <c r="I32" s="28">
         <v>75.790000000000006</v>
       </c>
-      <c r="J32" s="21">
+      <c r="J32" s="28">
         <v>96.58</v>
       </c>
-      <c r="K32" s="21">
+      <c r="K32" s="28">
         <v>85.42</v>
       </c>
-      <c r="L32" s="21">
+      <c r="L32" s="28">
         <v>74.38</v>
       </c>
-      <c r="M32" s="6">
+      <c r="M32" s="16">
         <f t="shared" si="0"/>
         <v>82.259090909090915</v>
       </c>
@@ -2400,43 +2392,43 @@
       <c r="Z32" s="7"/>
     </row>
     <row r="33" spans="1:26" ht="18.75" customHeight="1">
-      <c r="A33" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B33" s="21">
+      <c r="A33" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B33" s="28">
         <v>94.63</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="30">
         <v>97.69</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="28">
         <v>57.08</v>
       </c>
-      <c r="E33" s="21">
+      <c r="E33" s="28">
         <v>74.650000000000006</v>
       </c>
-      <c r="F33" s="23">
+      <c r="F33" s="30">
         <v>93.68</v>
       </c>
-      <c r="G33" s="21">
+      <c r="G33" s="28">
         <v>87.59</v>
       </c>
-      <c r="H33" s="21">
+      <c r="H33" s="28">
         <v>88.11</v>
       </c>
-      <c r="I33" s="21">
+      <c r="I33" s="28">
         <v>77.569999999999993</v>
       </c>
-      <c r="J33" s="21">
+      <c r="J33" s="28">
         <v>97.12</v>
       </c>
-      <c r="K33" s="21">
+      <c r="K33" s="28">
         <v>87.53</v>
       </c>
-      <c r="L33" s="21">
+      <c r="L33" s="28">
         <v>75.17</v>
       </c>
-      <c r="M33" s="6">
+      <c r="M33" s="16">
         <f t="shared" si="0"/>
         <v>84.61999999999999</v>
       </c>
@@ -2454,86 +2446,87 @@
       <c r="Y33" s="7"/>
       <c r="Z33" s="7"/>
     </row>
-    <row r="34" spans="1:26" ht="13">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="24"/>
-    </row>
-    <row r="35" spans="1:26" ht="13">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="24"/>
-      <c r="H35" s="24"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="24"/>
-    </row>
-    <row r="36" spans="1:26" ht="13">
-      <c r="A36" s="24"/>
-      <c r="B36" s="24"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="24"/>
-      <c r="H36" s="24"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="24"/>
-    </row>
-    <row r="40" spans="1:26" ht="13">
-      <c r="B40" s="25"/>
-    </row>
-    <row r="41" spans="1:26" ht="13">
-      <c r="B41" s="25"/>
-    </row>
-    <row r="42" spans="1:26" ht="13">
-      <c r="B42" s="25"/>
-    </row>
-    <row r="43" spans="1:26" ht="13">
-      <c r="B43" s="25"/>
-    </row>
-    <row r="44" spans="1:26" ht="13">
-      <c r="B44" s="25"/>
-    </row>
-    <row r="45" spans="1:26" ht="13">
-      <c r="B45" s="25"/>
-    </row>
-    <row r="46" spans="1:26" ht="13">
-      <c r="B46" s="25"/>
-    </row>
-    <row r="47" spans="1:26" ht="13">
-      <c r="B47" s="25"/>
-    </row>
-    <row r="48" spans="1:26" ht="13">
-      <c r="B48" s="25"/>
-    </row>
-    <row r="49" spans="2:2" ht="13">
-      <c r="B49" s="25"/>
-    </row>
-    <row r="50" spans="2:2" ht="13">
-      <c r="B50" s="25"/>
+    <row r="34" spans="1:26" ht="12.75">
+      <c r="A34" s="13"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
+      <c r="K34" s="13"/>
+      <c r="L34" s="13"/>
+      <c r="M34" s="13"/>
+    </row>
+    <row r="35" spans="1:26" ht="12.75">
+      <c r="A35" s="8"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="J35" s="8"/>
+      <c r="K35" s="8"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
+    </row>
+    <row r="36" spans="1:26" ht="12.75">
+      <c r="A36" s="8"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="8"/>
+      <c r="J36" s="8"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+    </row>
+    <row r="40" spans="1:26" ht="12.75">
+      <c r="B40" s="9"/>
+    </row>
+    <row r="41" spans="1:26" ht="12.75">
+      <c r="B41" s="9"/>
+    </row>
+    <row r="42" spans="1:26" ht="12.75">
+      <c r="B42" s="9"/>
+    </row>
+    <row r="43" spans="1:26" ht="12.75">
+      <c r="B43" s="9"/>
+    </row>
+    <row r="44" spans="1:26" ht="12.75">
+      <c r="B44" s="9"/>
+    </row>
+    <row r="45" spans="1:26" ht="12.75">
+      <c r="B45" s="9"/>
+    </row>
+    <row r="46" spans="1:26" ht="12.75">
+      <c r="B46" s="9"/>
+    </row>
+    <row r="47" spans="1:26" ht="12.75">
+      <c r="B47" s="9"/>
+    </row>
+    <row r="48" spans="1:26" ht="12.75">
+      <c r="B48" s="9"/>
+    </row>
+    <row r="49" spans="2:2" ht="12.75">
+      <c r="B49" s="9"/>
+    </row>
+    <row r="50" spans="2:2" ht="12.75">
+      <c r="B50" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>